--- a/biology/Botanique/Liste_des_espèces_de_Potentilla/Liste_des_espèces_de_Potentilla.xlsx
+++ b/biology/Botanique/Liste_des_espèces_de_Potentilla/Liste_des_espèces_de_Potentilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Potentilla</t>
+          <t>Liste_des_espèces_de_Potentilla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces suivantes du genre Potentilla sont reconnues par The Plant List :
 Potentilla acaulis L.
@@ -818,7 +830,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Potentilla</t>
+          <t>Liste_des_espèces_de_Potentilla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -836,7 +848,9 @@
           <t>Liste ITIS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces supplémentaires suivantes sont acceptées par ITIS , bien qu'elles puissent être considérées comme des synonymes par d'autres sources :
 Potentilla albiflora L.O. Williams – white-flower cinquefoil, Pinaleno cinquefoil, whiteflower cinquefoil
@@ -894,7 +908,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Potentilla</t>
+          <t>Liste_des_espèces_de_Potentilla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -912,7 +926,9 @@
           <t>Liste GRIN</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces supplémentaires suivantes sont acceptées par le Germplasm Resources Information Network (GRIN), bien qu'elles puissent être considérées comme des synonymes par d'autres sources, ou être des accessions erronées : 
 Potentilla curviseta
@@ -941,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Potentilla</t>
+          <t>Liste_des_espèces_de_Potentilla</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -959,7 +975,9 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Potentilla sterneri est nouvellement décrite</t>
         </is>
